--- a/01_論文/實驗記錄.xlsx
+++ b/01_論文/實驗記錄.xlsx
@@ -26,18 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>5台感應模組</t>
-  </si>
-  <si>
-    <t>10台感應模組</t>
-  </si>
-  <si>
-    <t>20台感應模組</t>
-  </si>
-  <si>
-    <t>50台感應模組</t>
-  </si>
-  <si>
     <t>執行10次平均時間</t>
   </si>
   <si>
@@ -48,6 +36,22 @@
   </si>
   <si>
     <t>執行100次平均時間</t>
+  </si>
+  <si>
+    <t>5台感應裝置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10台感應裝置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20台感應裝置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50台感應裝置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -204,7 +208,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5台感應模組</c:v>
+                  <c:v>5台感應裝置</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -332,7 +336,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10台感應模組</c:v>
+                  <c:v>10台感應裝置</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -460,7 +464,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20台感應模組</c:v>
+                  <c:v>20台感應裝置</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -588,7 +592,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50台感應模組</c:v>
+                  <c:v>50台感應裝置</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1753,28 +1757,28 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0.40100000000000002</v>
@@ -1791,7 +1795,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0.316</v>
@@ -1808,7 +1812,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0.499</v>
@@ -1825,7 +1829,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0.35099999999999998</v>
